--- a/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -130,6 +130,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàêäéóå ãïñú òïëñïâéþ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did you know that recycling\nsometimes gives you a [CS:I]Prize Ticket[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When you\'re recycling,\nsometimes you\'ll receive a bonus [CS:I]Prize Ticket[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Знаешь ли ты, что иногда при\nпереработке можно получить [CS:I]Призовой\nБилет[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда ты перерабатываешь\nпредметы, ты можешь получить [CS:I]Призовой\nБилет[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàåšû ìé óú, œóï éîïãäà ðñé\nðåñåñàáïóëå íïçîï ðïìôœéóû [CS:I]Ðñéèïâïê\nÁéìåó[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà óú ðåñåñàáàóúâàåšû\nðñåäíåóú, óú íïçåšû ðïìôœéóû [CS:I]Ðñéèïâïê\nÁéìåó[CR].</t>
   </si>
 </sst>
 </file>
@@ -525,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,17 +710,50 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <v>430</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
+        <v>405</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
+        <v>408</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Ëïãäà óú ðåñåñàáàóúâàåšû\nðñåäíåóú, óú íïçåšû ðïìôœéóû [CS:I]Ðñéèïâïê\nÁéìåó[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I went out exploring recently\nand came back with a bunch of items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But at least I can recycle all\nthese extra items!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Недавно я ходил на вылазку и\nпринёс много предметов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но по крайней мере я всегда\nмогу переработать излишки!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåäàâîï ÿ öïäéì îà âúìàèëô é\nðñéîæò íîïãï ðñåäíåóïâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ðï ëñàêîåê íåñå ÿ âòåãäà\níïãô ðåñåñàáïóàóû éèìéšëé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1501.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1601.ssb</t>
   </si>
 </sst>
 </file>
@@ -546,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,6 +783,45 @@
         <v>43</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4">
+        <v>383</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4">
+        <v>386</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -178,6 +178,60 @@
   </si>
   <si>
     <t>SCRIPT/P01P04A/um1601.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I haven\'t seen you in a while.\nWhere have you been?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я вас давно не видел. Где вы\nбыли?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âàò äàâîï îå âéäåì. Ãäå âú\náúìé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I heard you were looking for the\n[CS:P]Hidden Land[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'d like to think of myself as a\nfountain of knowledge, but I\'ve never heard of\nthat place.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я привык думать о себе, как о\nвсезнайке, но я никогда не слышал об этом\nместе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, вы ищете [CS:P]Сокрытые\nЗемли[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, âú éþåóå [CS:P]Òïëñúóúå\nÈåíìé[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñéâúë äôíàóû ï òåáå, ëàë ï\nâòåèîàêëå, îï ÿ îéëïãäà îå òìúšàì ïá üóïí\níåòóå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I heard that you are trying to\nsave the world from disaster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck![K]\nAll I can do is wish you luck, but I have great\nconfidence in you.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышал, вы пытаетесь уберечь\nмир от катастрофы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи![K] Всё, что я могу, это\nтолько пожелать вам удачи, но я в вас\nверю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàì, âú ðúóàåóåòû ôáåñåœû\níéñ ïó ëàóàòóñïõú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé![K] Âòæ, œóï ÿ íïãô, üóï\nóïìûëï ðïçåìàóû âàí ôäàœé, îï ÿ â âàò\nâåñý.</t>
   </si>
 </sst>
 </file>
@@ -573,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,8 +872,92 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8">
+        <v>364</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4">
+        <v>342</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6">
+        <v>345</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4">
+        <v>320</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>323</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -232,6 +232,165 @@
   </si>
   <si>
     <t xml:space="preserve"> Ôäàœé![K] Âòæ, œóï ÿ íïãô, üóï\nóïìûëï ðïçåìàóû âàí ôäàœé, îï ÿ â âàò\nâåñý.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waah. Thanks to your hard\nwork saving the world, I can still go on\nleisurely explorations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you so much!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âààà. Áìàãïäàñÿ âàšéí ôòéìéÿí\nðï òðàòåîéý íéñà, ÿ âòæ åþæ íïãô\nîåóïñïðìéâï åãï éòòìåäïâàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí ïãñïíîïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вааа. Благодаря вашим усилиям\nпо спасению мира, я всё ещё могу\nнеторопливо его исследовать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам огромное!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ve heard about [CS:P]Sky Peak[CR]\nfrom a veteran explorer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It sounded like the path to the\nbase of the mountain was there in the past…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But I think I remember hearing\nthe path was destroyed by an earthquake\nor something.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я узнал о [CS:P]Небесном Пике[CR] от\nодного опытного исследователя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, когда-то существовал\nпуть к подножию горы...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôèîàì ï [CS:P]Îåáåòîïí Ðéëå[CR] ïó\nïäîïãï ïðúóîïãï éòòìåäïâàóåìÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, ëïãäà-óï òôþåòóâïâàì\nðôóû ë ðïäîïçéý ãïñú...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, ëàçåóòÿ, íîå ãïâïñéìé, œóï\nüóïó ðôóû áúì ôîéœóïçåî œåí-óï âñïäå\nèåíìåóñÿòåîéÿ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, кажется, мне говорили, что\nэтот путь был уничтожен чем-то вроде\nземлетрясения... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We can\'t request a Friend\nRescue on [CS:P]Sky Peak[CR] because the path was\ndestroyed by an earthquake, or so I\'ve heard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Sky Peak[CR] is quite inaccessible,\nI\'ve been told.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us3101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Из-за того, что путь уничтожен\nземлетрясением, мы не сможем запросить\nСпасение Друга на [CS:P]Небесном Пике[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как мне сказали, [CS:P]Небесный Пик[CR]\nпрактически непроходим.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éè-èà óïãï, œóï ðôóû ôîéœóïçåî\nèåíìåóñÿòåîéåí, íú îå òíïçåí èàðñïòéóû\nÒðàòåîéå Äñôãà îà [CS:P]Îåáåòîïí Ðéëå[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë íîå òëàèàìé, [CS:P]Îåáåòîúê Ðéë[CR]\nðñàëóéœåòëé îåðñïöïäéí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It makes me a little nervous\nthat I can\'t rely on a Friend Rescue here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But, in a way, it has a certain\nthrill to it.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P21A/us3105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я несколько переживаю за то,\nчто не могу запросить Спасение Друга.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, так даже интереснее.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îåòëïìûëï ðåñåçéâàý èà óï,\nœóï îå íïãô èàðñïòéóû Òðàòåîéå Äñôãà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, óàë äàçå éîóåñåòîåå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Sky Gifts[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Speaking of... One of my friends\nis celebrating a birthday soon. I should give\nthem one as a present…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P23A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Небесные Подарки[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кстати говоря... У одного из\nмоих друзей скоро день рождения. Надо бы\nему подарить такой подарок...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:I]Îåáåòîúå Ðïäàñëé[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëòóàóé ãïâïñÿ... Ô ïäîïãï éè\níïéö äñôèåê òëïñï äåîû ñïçäåîéÿ. Îàäï áú\nåíô ðïäàñéóû óàëïê ðïäàñïë...</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P26A/us3104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From here on, the mountain is\ncovered in snow…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was thinking of heading back\ndown to the base and getting supplies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дальше гора завалена снегом...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я думаю, что мне стоит вернуться\nв деревню и запастись припасами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàìûšå ãïñà èàâàìåîà òîåãïí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äôíàý, œóï íîå òóïéó âåñîôóûòÿ\nâ äåñåâîý é èàðàòóéòû ðñéðàòàíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh... So cold!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is it really true that someone\nfainted here?</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P27A/us3106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух... Как же холодно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь правда кто-то падал в\nобморок? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö... Ëàë çå öïìïäîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû ðñàâäà ëóï-óï ðàäàì â\nïáíïñïë?</t>
   </si>
 </sst>
 </file>
@@ -627,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,18 +1105,258 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="6">
         <v>323</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4">
+        <v>298</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6">
+        <v>301</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="4">
+        <v>273</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>276</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6">
+        <v>279</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="4">
+        <v>251</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6">
+        <v>254</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="4">
+        <v>229</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6">
+        <v>232</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="4">
+        <v>213</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6">
+        <v>216</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="4">
+        <v>197</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6">
+        <v>200</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="4">
+        <v>181</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>184</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -391,6 +391,159 @@
   </si>
   <si>
     <t xml:space="preserve"> Èäåòû ðñàâäà ëóï-óï ðàäàì â\nïáíïñïë?</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us3101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The climb was not an easy one,\nbut this view makes everything worth it.\nI feel rejuvenated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m glad I didn\'t give up\nhalfway up the mountain!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Восхождение далось непросто, но\nэтот вид стоил того. Я чувствую прилив\nсил.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я рад, что не бросил дело на\nполпути!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïòöïçäåîéå äàìïòû îåðñïòóï, îï\nüóïó âéä òóïéì óïãï. Ÿ œôâòóâôý ðñéìéâ\nòéì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñàä, œóï îå áñïòéì äåìï îà\nðïìðôóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I understand that [CS:P]Blizzard Island[CR]\nis a terribly harsh place. I wish you luck!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For your sakes, I hope you find\nthe treasure that has so far eluded that\nexplorer extraordinaire [CS:N]Scizor[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us0201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уверен, что [CS:P]Остров Метели[CR] это\nужасно суровое место. Желаю вам удачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я надеюсь, что у вас получится\nотыскать сокровище, которое в своё время\nне далось великому исследователю [CS:N]Сизору[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôâåñåî, œóï [CS:P]Ïòóñïâ Íåóåìé[CR] üóï\nôçàòîï òôñïâïå íåòóï. Çåìàý âàí ôäàœé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îàäåýòû, œóï ô âàò ðïìôœéóòÿ\nïóúòëàóû òïëñïâéþå, ëïóïñïå â òâïæ âñåíÿ\nîå äàìïòû âåìéëïíô éòòìåäïâàóåìý [CS:N]Òéèïñô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My goodness! You two are\nsomething else!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To rescue an explorer of such\nlegendary status as [CS:N]Scizor[CR]...!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Боже мой! Вы двое просто нечто! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Суметь спасти легендарного\nисследователя [CS:N]Сизора[CR]!..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áïçå íïê! Âú äâïå ðñïòóï îåœóï! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òôíåóû òðàòóé ìåãåîäàñîïãï\néòòìåäïâàóåìÿ [CS:N]Òéèïñà[CR]!..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? I wonder what happened.\nThere are hardly any customers…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder where everyone went.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А? Интересно, что произошло.\nЗдесь почти нет посетителей...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, куда все ушли.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À? Éîóåñåòîï, œóï ðñïéèïšìï.\nÈäåòû ðïœóé îåó ðïòåóéóåìåê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, ëôäà âòå ôšìé.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0405.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All the café patrons haven\'t\nreturned from [CS:P]Sky Peak[CR] yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As long as they don\'t become\nmissing Pokémon! Ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well... That wasn\'t really funny.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Постояльцы кафе ещё не вернулись\nс [CS:P]Небесного Пика[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Быть может, они там все пропали!\nХа-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ладно... Это было совсем не\nсмешно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòóïÿìûøú ëàõå åþæ îå âåñîôìéòû\nò [CS:P]Îåáåòîïãï Ðéëà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áúóû íïçåó, ïîé óàí âòå ðñïðàìé!\nÖà-öà-öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ìàäîï... Üóï áúìï òïâòåí îå\nòíåšîï.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2006.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s become pretty busy in here\nnow that everyone\'s back.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2001.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óåðåñû, ëïãäà âòå òîïâà\nâåñîôìéòû, èäåòû òóàìï ðïšôíîåå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Теперь, когда все снова\nвернулись, здесь стало пошумнее.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2101.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sometimes Bottles with\nMessages in them wash up on the beach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s kind of romantic…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Иногда на пляже появляются\nБутылки с Посланиями.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это несколько романтично...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîïãäà îà ðìÿçå ðïÿâìÿýóòÿ\nÁôóúìëé ò Ðïòìàîéÿíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï îåòëïìûëï ñïíàîóéœîï...</t>
   </si>
 </sst>
 </file>
@@ -421,7 +574,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -473,11 +626,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -504,6 +666,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -786,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,17 +1514,250 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="4">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6">
         <v>184</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="4">
+        <v>159</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10">
+        <v>168</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="4">
+        <v>140</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>143</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>118</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6">
+        <v>121</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="4">
+        <v>96</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="6">
+        <v>99</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="4">
+        <v>60</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="4">
+        <v>63</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6">
+        <v>77</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="4">
+        <v>41</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="4">
+        <v>18</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>21</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Мр. Майм.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóï îåòëïìûëï ñïíàîóéœîï...</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2301.ssb</t>
   </si>
 </sst>
 </file>
@@ -957,7 +960,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,7 +1749,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="B50" s="4">
         <v>21</v>
       </c>
